--- a/data/MolarMass.xlsx
+++ b/data/MolarMass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE903FC1-EA4C-4972-94A1-334D7061052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DD4F00-9465-4566-A7C8-AD9B682AE8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24840" yWindow="2520" windowWidth="21600" windowHeight="11235" xr2:uid="{DFE3A89C-5987-45E7-AAED-78A8F11FFB00}"/>
+    <workbookView xWindow="6615" yWindow="1680" windowWidth="20415" windowHeight="12840" xr2:uid="{DFE3A89C-5987-45E7-AAED-78A8F11FFB00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>trans-DCE</t>
   </si>
   <si>
-    <t>1.1-DCE</t>
+    <t>1,1-DCE</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
